--- a/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/data/zero-f.bag.xlsx
+++ b/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/data/zero-f.bag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-battery/src/main/resources/plugin/battery/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B014EBFE-F592-9049-A0CC-A2969967C7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4536F67-E5CF-394A-9674-664CF0FEB351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40400" yWindow="-920" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="71040" yWindow="-17160" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>key</t>
   </si>
@@ -136,6 +136,14 @@
   </si>
   <si>
     <t>a94f83ae-7320-4358-a372-a683c3eece07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_ZERO_F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCK_ZERO_E</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +636,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -639,7 +647,7 @@
     <col min="4" max="4" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -736,7 +744,9 @@
       <c r="F5" s="5">
         <v>10000</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8">
@@ -756,7 +766,9 @@
       <c r="F6" s="5">
         <v>10100</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="8"/>
     </row>
   </sheetData>
